--- a/biology/Médecine/Centre_hospitalier_de_São_Tomé/Centre_hospitalier_de_São_Tomé.xlsx
+++ b/biology/Médecine/Centre_hospitalier_de_São_Tomé/Centre_hospitalier_de_São_Tomé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_de_S%C3%A3o_Tom%C3%A9</t>
+          <t>Centre_hospitalier_de_São_Tomé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Centre hospitalier de São Tomé (Centro hospitalar de São Tomé), aussi connu sous le nom d'hôpital du Dr Ayres Menezes[1],[2], est un hôpital situé à São Tomé, la capitale santoméenne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre hospitalier de São Tomé (Centro hospitalar de São Tomé), aussi connu sous le nom d'hôpital du Dr Ayres Menezes est un hôpital situé à São Tomé, la capitale santoméenne.
 Il est situé près de l'Institut des sciences et de la vie (en).
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_de_S%C3%A3o_Tom%C3%A9</t>
+          <t>Centre_hospitalier_de_São_Tomé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2006 et 2009, l'hôpital reçoit une aide des États-Unis et du Portugal pour son approvisionnement en l'hémodialyse[3].
-Un nouveau service de diagnostic ouvre fin juin 2017[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2006 et 2009, l'hôpital reçoit une aide des États-Unis et du Portugal pour son approvisionnement en l'hémodialyse.
+Un nouveau service de diagnostic ouvre fin juin 2017.
 </t>
         </is>
       </c>
